--- a/data/Logout_TC002.xlsx
+++ b/data/Logout_TC002.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse_Java_Workspace\DemoProj\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse_Java_Workspace\DemoPM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>c902103+june2@gmail.com</t>
+  </si>
+  <si>
+    <t>FRTitle</t>
+  </si>
+  <si>
+    <t>Fileroom_New</t>
   </si>
 </sst>
 </file>
@@ -423,32 +429,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
